--- a/poc/social-buzz/doc/TV프로그램_v1.0_20110920.xlsx
+++ b/poc/social-buzz/doc/TV프로그램_v1.0_20110920.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="225" windowWidth="18315" windowHeight="8160" tabRatio="433" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="285" windowWidth="18315" windowHeight="8100" tabRatio="433"/>
   </bookViews>
   <sheets>
     <sheet name="프로그램" sheetId="13" r:id="rId1"/>
-    <sheet name="시청율" sheetId="14" r:id="rId2"/>
+    <sheet name="시청률" sheetId="14" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">프로그램!$A$1:$S$34</definedName>
@@ -1337,10 +1337,6 @@
     <t>KO</t>
   </si>
   <si>
-    <t>@NCIS_CBS OR #NCIS:10, ncis:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>@60Minutes OR #60Minutes:5, 60 minutes:5, 60 min:5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1353,10 +1349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>@CBSBigBrother OR #CBSBigBrother OR #bigbrother OR #bb13:5, big brother:5, bb13:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>@BigBang_CBS OR #bigbangtheory OR #BBT OR #TBBT:5, big bang theory:5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1372,6 +1364,14 @@
   </si>
   <si>
     <t>weekly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@NCIS_CBS OR #NCIS:10, ncis -Los Angeles -LA:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@CBSBigBrother OR #CBSBigBrother OR #bigbrother OR #bb13:5, big brother 13:5, bb13:2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1866,11 +1866,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3374,7 +3374,7 @@
         <v>0.875</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -3403,7 +3403,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="27" x14ac:dyDescent="0.3">
@@ -3432,7 +3432,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.3">
@@ -3461,7 +3461,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="27" x14ac:dyDescent="0.3">
@@ -3490,7 +3490,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="27" x14ac:dyDescent="0.3">
@@ -3519,7 +3519,7 @@
         <v>0.875</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -3538,9 +3538,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -6771,10 +6771,10 @@
         <v>20110925</v>
       </c>
       <c r="F104" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="G104" s="19" t="s">
         <v>392</v>
-      </c>
-      <c r="G104" s="19" t="s">
-        <v>394</v>
       </c>
       <c r="H104" s="28"/>
       <c r="I104" s="28"/>
@@ -6801,7 +6801,7 @@
         <v>384</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -6826,7 +6826,7 @@
         <v>384</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -6851,7 +6851,7 @@
         <v>384</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -6876,7 +6876,7 @@
         <v>384</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -6901,7 +6901,7 @@
         <v>384</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -6926,7 +6926,7 @@
         <v>384</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -6951,7 +6951,7 @@
         <v>384</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -6976,7 +6976,7 @@
         <v>384</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -7001,7 +7001,7 @@
         <v>384</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -7026,7 +7026,7 @@
         <v>384</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -7051,7 +7051,7 @@
         <v>384</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -7076,7 +7076,7 @@
         <v>384</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -7101,7 +7101,7 @@
         <v>384</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -7126,7 +7126,7 @@
         <v>384</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -7151,7 +7151,7 @@
         <v>384</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -7176,7 +7176,7 @@
         <v>384</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -7201,7 +7201,7 @@
         <v>384</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -7226,7 +7226,7 @@
         <v>384</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -7251,7 +7251,7 @@
         <v>384</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -7276,7 +7276,7 @@
         <v>384</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -7301,7 +7301,7 @@
         <v>384</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -7314,7 +7314,7 @@
         <v>MON,TUE</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D126" s="14">
         <v>20110919</v>
@@ -7326,7 +7326,7 @@
         <v>384</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">

--- a/poc/social-buzz/doc/TV프로그램_v1.0_20110920.xlsx
+++ b/poc/social-buzz/doc/TV프로그램_v1.0_20110920.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="285" windowWidth="18315" windowHeight="8100" tabRatio="433"/>
+    <workbookView xWindow="480" yWindow="285" windowWidth="18315" windowHeight="8100" tabRatio="433" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로그램" sheetId="13" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="395">
   <si>
     <t>program_id</t>
   </si>
@@ -1367,7 +1367,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>@NCIS_CBS OR #NCIS:10, ncis -Los Angeles -LA:5</t>
+    <t>@NCIS_CBS OR #NCIS:10, ncis -Los -Angeles -LA:5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1866,11 +1866,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Q26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S35" sqref="S35"/>
+      <selection pane="bottomRight" activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3536,11 +3536,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -6755,191 +6755,227 @@
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="17" t="str">
         <f>VLOOKUP(C104,프로그램!A:B,2,FALSE)</f>
-        <v>오작교 형제들</v>
+        <v>AMERICA'S GOT TALENT</v>
       </c>
       <c r="B104" s="17" t="str">
         <f>VLOOKUP(C104,프로그램!A:I,9,FALSE)</f>
-        <v>SAT,SUN</v>
+        <v>TUE,WED</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="D104" s="19">
-        <v>20110919</v>
+        <v>20110912</v>
       </c>
       <c r="E104" s="19">
-        <v>20110925</v>
+        <v>20110918</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>390</v>
+        <v>282</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="H104" s="28"/>
-      <c r="I104" s="28"/>
+        <v>337</v>
+      </c>
+      <c r="H104" s="27">
+        <f>(13670000+14374000)/2</f>
+        <v>14022000</v>
+      </c>
+      <c r="I104" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="23" t="str">
         <f>VLOOKUP(C105,프로그램!A:B,2,FALSE)</f>
-        <v>우리집 여자들</v>
+        <v>60 MINUTES</v>
       </c>
       <c r="B105" s="23" t="str">
         <f>VLOOKUP(C105,프로그램!A:I,9,FALSE)</f>
-        <v>MON~FRI</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>27</v>
+        <v>SUN</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>274</v>
       </c>
       <c r="D105" s="14">
-        <v>20110919</v>
+        <v>20110912</v>
       </c>
       <c r="E105" s="14">
-        <v>20110925</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>384</v>
+        <v>20110918</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>282</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>391</v>
+        <v>337</v>
+      </c>
+      <c r="H105" s="24">
+        <v>12480000</v>
+      </c>
+      <c r="I105" s="16">
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="23" t="str">
         <f>VLOOKUP(C106,프로그램!A:B,2,FALSE)</f>
-        <v>공주의 남자</v>
+        <v>NCIS</v>
       </c>
       <c r="B106" s="23" t="str">
         <f>VLOOKUP(C106,프로그램!A:I,9,FALSE)</f>
-        <v>WED,THU</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>56</v>
+        <v>TUE</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>272</v>
       </c>
       <c r="D106" s="14">
-        <v>20110919</v>
+        <v>20110912</v>
       </c>
       <c r="E106" s="14">
-        <v>20110925</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>384</v>
+        <v>20110918</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>282</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>391</v>
+        <v>337</v>
+      </c>
+      <c r="H106" s="24">
+        <v>10258000</v>
+      </c>
+      <c r="I106" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="23" t="str">
         <f>VLOOKUP(C107,프로그램!A:B,2,FALSE)</f>
-        <v>해피선데이 - 1박 2일</v>
+        <v>THE BIG BANG THEORY</v>
       </c>
       <c r="B107" s="23" t="str">
         <f>VLOOKUP(C107,프로그램!A:I,9,FALSE)</f>
-        <v>SUN</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>53</v>
+        <v>THU</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>278</v>
       </c>
       <c r="D107" s="14">
-        <v>20110919</v>
+        <v>20110912</v>
       </c>
       <c r="E107" s="14">
-        <v>20110925</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>384</v>
+        <v>20110918</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>282</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>391</v>
+        <v>337</v>
+      </c>
+      <c r="H107" s="24">
+        <f>(8782000+8221000)/2</f>
+        <v>8501500</v>
+      </c>
+      <c r="I107" s="13">
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="23" t="str">
         <f>VLOOKUP(C108,프로그램!A:B,2,FALSE)</f>
-        <v>해피선데이 - 남자의 자격 - 죽기전에 해야할 101가지</v>
+        <v>BIG BROTHER 13</v>
       </c>
       <c r="B108" s="23" t="str">
         <f>VLOOKUP(C108,프로그램!A:I,9,FALSE)</f>
-        <v>SUN</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>54</v>
+        <v>WED,THU</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>276</v>
       </c>
       <c r="D108" s="14">
-        <v>20110919</v>
+        <v>20110912</v>
       </c>
       <c r="E108" s="14">
-        <v>20110925</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>384</v>
+        <v>20110918</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>282</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>391</v>
+        <v>337</v>
+      </c>
+      <c r="H108" s="24">
+        <v>7776000</v>
+      </c>
+      <c r="I108" s="13">
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="23" t="str">
         <f>VLOOKUP(C109,프로그램!A:B,2,FALSE)</f>
-        <v>광개토대왕</v>
+        <v>CRIMINAL MINDS</v>
       </c>
       <c r="B109" s="23" t="str">
         <f>VLOOKUP(C109,프로그램!A:I,9,FALSE)</f>
+        <v>WED</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="D109" s="14">
+        <v>20110912</v>
+      </c>
+      <c r="E109" s="14">
+        <v>20110918</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="H109" s="24"/>
+      <c r="I109" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="17" t="str">
+        <f>VLOOKUP(C110,프로그램!A:B,2,FALSE)</f>
+        <v>오작교 형제들</v>
+      </c>
+      <c r="B110" s="17" t="str">
+        <f>VLOOKUP(C110,프로그램!A:I,9,FALSE)</f>
         <v>SAT,SUN</v>
       </c>
-      <c r="C109" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D109" s="14">
+      <c r="C110" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D110" s="19">
         <v>20110919</v>
       </c>
-      <c r="E109" s="14">
+      <c r="E110" s="19">
         <v>20110925</v>
       </c>
-      <c r="F109" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="G109" s="14" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="23" t="str">
-        <f>VLOOKUP(C110,프로그램!A:B,2,FALSE)</f>
-        <v>개그콘서트</v>
-      </c>
-      <c r="B110" s="23" t="str">
-        <f>VLOOKUP(C110,프로그램!A:I,9,FALSE)</f>
-        <v>SUN</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D110" s="14">
-        <v>20110919</v>
-      </c>
-      <c r="E110" s="14">
-        <v>20110925</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="G110" s="14" t="s">
-        <v>391</v>
-      </c>
+      <c r="F110" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="G110" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="H110" s="28"/>
+      <c r="I110" s="28"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="23" t="str">
         <f>VLOOKUP(C111,프로그램!A:B,2,FALSE)</f>
-        <v>무사 백동수</v>
+        <v>우리집 여자들</v>
       </c>
       <c r="B111" s="23" t="str">
         <f>VLOOKUP(C111,프로그램!A:I,9,FALSE)</f>
-        <v>MON,TUE</v>
+        <v>MON~FRI</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D111" s="14">
         <v>20110919</v>
@@ -6957,14 +6993,14 @@
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="23" t="str">
         <f>VLOOKUP(C112,프로그램!A:B,2,FALSE)</f>
-        <v>무한도전</v>
+        <v>공주의 남자</v>
       </c>
       <c r="B112" s="23" t="str">
         <f>VLOOKUP(C112,프로그램!A:I,9,FALSE)</f>
-        <v>SAT</v>
+        <v>WED,THU</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D112" s="14">
         <v>20110919</v>
@@ -6979,17 +7015,17 @@
         <v>391</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="23" t="str">
         <f>VLOOKUP(C113,프로그램!A:B,2,FALSE)</f>
-        <v>내 사랑 내곁에</v>
+        <v>해피선데이 - 1박 2일</v>
       </c>
       <c r="B113" s="23" t="str">
         <f>VLOOKUP(C113,프로그램!A:I,9,FALSE)</f>
-        <v>SAT,SUN</v>
+        <v>SUN</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D113" s="14">
         <v>20110919</v>
@@ -7004,17 +7040,17 @@
         <v>391</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="23" t="str">
         <f>VLOOKUP(C114,프로그램!A:B,2,FALSE)</f>
-        <v>당신이 잠든 사이</v>
+        <v>해피선데이 - 남자의 자격 - 죽기전에 해야할 101가지</v>
       </c>
       <c r="B114" s="23" t="str">
         <f>VLOOKUP(C114,프로그램!A:I,9,FALSE)</f>
-        <v>MON~FRI</v>
+        <v>SUN</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D114" s="14">
         <v>20110919</v>
@@ -7029,17 +7065,17 @@
         <v>391</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="23" t="str">
         <f>VLOOKUP(C115,프로그램!A:B,2,FALSE)</f>
-        <v>보스를 지켜라</v>
+        <v>광개토대왕</v>
       </c>
       <c r="B115" s="23" t="str">
         <f>VLOOKUP(C115,프로그램!A:I,9,FALSE)</f>
         <v>SAT,SUN</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D115" s="14">
         <v>20110919</v>
@@ -7054,17 +7090,17 @@
         <v>391</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="23" t="str">
         <f>VLOOKUP(C116,프로그램!A:B,2,FALSE)</f>
-        <v>당신 참 예쁘다</v>
+        <v>개그콘서트</v>
       </c>
       <c r="B116" s="23" t="str">
         <f>VLOOKUP(C116,프로그램!A:I,9,FALSE)</f>
-        <v>MON~FRI</v>
+        <v>SUN</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D116" s="14">
         <v>20110919</v>
@@ -7079,17 +7115,17 @@
         <v>391</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="23" t="str">
         <f>VLOOKUP(C117,프로그램!A:B,2,FALSE)</f>
-        <v>해피투게더 3</v>
+        <v>무사 백동수</v>
       </c>
       <c r="B117" s="23" t="str">
         <f>VLOOKUP(C117,프로그램!A:I,9,FALSE)</f>
-        <v>THU</v>
+        <v>MON,TUE</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D117" s="14">
         <v>20110919</v>
@@ -7104,17 +7140,17 @@
         <v>391</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="23" t="str">
         <f>VLOOKUP(C118,프로그램!A:B,2,FALSE)</f>
-        <v>세바퀴</v>
+        <v>무한도전</v>
       </c>
       <c r="B118" s="23" t="str">
         <f>VLOOKUP(C118,프로그램!A:I,9,FALSE)</f>
         <v>SAT</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D118" s="14">
         <v>20110919</v>
@@ -7129,17 +7165,17 @@
         <v>391</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="23" t="str">
         <f>VLOOKUP(C119,프로그램!A:B,2,FALSE)</f>
-        <v>우리들의 일밤 - 서바이블 나는 가수다</v>
+        <v>내 사랑 내곁에</v>
       </c>
       <c r="B119" s="23" t="str">
         <f>VLOOKUP(C119,프로그램!A:I,9,FALSE)</f>
-        <v>SUN</v>
+        <v>SAT,SUN</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D119" s="14">
         <v>20110919</v>
@@ -7154,17 +7190,17 @@
         <v>391</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="23" t="str">
         <f>VLOOKUP(C120,프로그램!A:B,2,FALSE)</f>
-        <v>계백</v>
+        <v>당신이 잠든 사이</v>
       </c>
       <c r="B120" s="23" t="str">
         <f>VLOOKUP(C120,프로그램!A:I,9,FALSE)</f>
-        <v>MON,TUE</v>
+        <v>MON~FRI</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D120" s="14">
         <v>20110919</v>
@@ -7179,17 +7215,17 @@
         <v>391</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="23" t="str">
         <f>VLOOKUP(C121,프로그램!A:B,2,FALSE)</f>
-        <v>천 번의 입맞춤</v>
+        <v>보스를 지켜라</v>
       </c>
       <c r="B121" s="23" t="str">
         <f>VLOOKUP(C121,프로그램!A:I,9,FALSE)</f>
         <v>SAT,SUN</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D121" s="14">
         <v>20110919</v>
@@ -7204,17 +7240,17 @@
         <v>391</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="23" t="str">
         <f>VLOOKUP(C122,프로그램!A:B,2,FALSE)</f>
-        <v>놀라운대회 스타킹</v>
+        <v>당신 참 예쁘다</v>
       </c>
       <c r="B122" s="23" t="str">
         <f>VLOOKUP(C122,프로그램!A:I,9,FALSE)</f>
-        <v>SAT</v>
+        <v>MON~FRI</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D122" s="14">
         <v>20110919</v>
@@ -7229,17 +7265,17 @@
         <v>391</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="23" t="str">
         <f>VLOOKUP(C123,프로그램!A:B,2,FALSE)</f>
-        <v>강심장</v>
+        <v>해피투게더 3</v>
       </c>
       <c r="B123" s="23" t="str">
         <f>VLOOKUP(C123,프로그램!A:I,9,FALSE)</f>
-        <v>TUE</v>
+        <v>THU</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D123" s="14">
         <v>20110919</v>
@@ -7254,17 +7290,17 @@
         <v>391</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="23" t="str">
         <f>VLOOKUP(C124,프로그램!A:B,2,FALSE)</f>
-        <v>우리 결혼했어요 Season3</v>
+        <v>세바퀴</v>
       </c>
       <c r="B124" s="23" t="str">
         <f>VLOOKUP(C124,프로그램!A:I,9,FALSE)</f>
         <v>SAT</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D124" s="14">
         <v>20110919</v>
@@ -7279,17 +7315,17 @@
         <v>391</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="23" t="str">
         <f>VLOOKUP(C125,프로그램!A:B,2,FALSE)</f>
-        <v>일요일이 좋다 - 런닝맨</v>
+        <v>우리들의 일밤 - 서바이블 나는 가수다</v>
       </c>
       <c r="B125" s="23" t="str">
         <f>VLOOKUP(C125,프로그램!A:I,9,FALSE)</f>
         <v>SUN</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D125" s="14">
         <v>20110919</v>
@@ -7304,17 +7340,17 @@
         <v>391</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="23" t="str">
         <f>VLOOKUP(C126,프로그램!A:B,2,FALSE)</f>
-        <v>포세이돈</v>
+        <v>계백</v>
       </c>
       <c r="B126" s="23" t="str">
         <f>VLOOKUP(C126,프로그램!A:I,9,FALSE)</f>
         <v>MON,TUE</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>389</v>
+        <v>60</v>
       </c>
       <c r="D126" s="14">
         <v>20110919</v>
@@ -7329,44 +7365,42 @@
         <v>391</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="17" t="str">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="23" t="str">
         <f>VLOOKUP(C127,프로그램!A:B,2,FALSE)</f>
-        <v>AMERICA'S GOT TALENT</v>
-      </c>
-      <c r="B127" s="17" t="str">
+        <v>천 번의 입맞춤</v>
+      </c>
+      <c r="B127" s="23" t="str">
         <f>VLOOKUP(C127,프로그램!A:I,9,FALSE)</f>
-        <v>TUE,WED</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D127" s="19">
+        <v>SAT,SUN</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" s="14">
         <v>20110919</v>
       </c>
-      <c r="E127" s="19">
+      <c r="E127" s="14">
         <v>20110925</v>
       </c>
-      <c r="F127" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="G127" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="H127" s="27"/>
-      <c r="I127" s="18"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F127" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="23" t="str">
         <f>VLOOKUP(C128,프로그램!A:B,2,FALSE)</f>
-        <v>NCIS</v>
+        <v>놀라운대회 스타킹</v>
       </c>
       <c r="B128" s="23" t="str">
         <f>VLOOKUP(C128,프로그램!A:I,9,FALSE)</f>
-        <v>TUE</v>
-      </c>
-      <c r="C128" s="25" t="s">
-        <v>272</v>
+        <v>SAT</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="D128" s="14">
         <v>20110919</v>
@@ -7374,26 +7408,24 @@
       <c r="E128" s="14">
         <v>20110925</v>
       </c>
-      <c r="F128" s="13" t="s">
-        <v>282</v>
+      <c r="F128" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="H128" s="24"/>
-      <c r="I128" s="13"/>
+        <v>391</v>
+      </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="23" t="str">
         <f>VLOOKUP(C129,프로그램!A:B,2,FALSE)</f>
-        <v>60 MINUTES</v>
+        <v>강심장</v>
       </c>
       <c r="B129" s="23" t="str">
         <f>VLOOKUP(C129,프로그램!A:I,9,FALSE)</f>
-        <v>SUN</v>
-      </c>
-      <c r="C129" s="25" t="s">
-        <v>274</v>
+        <v>TUE</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="D129" s="14">
         <v>20110919</v>
@@ -7401,26 +7433,24 @@
       <c r="E129" s="14">
         <v>20110925</v>
       </c>
-      <c r="F129" s="13" t="s">
-        <v>282</v>
+      <c r="F129" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="H129" s="24"/>
-      <c r="I129" s="16"/>
+        <v>391</v>
+      </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="23" t="str">
         <f>VLOOKUP(C130,프로그램!A:B,2,FALSE)</f>
-        <v>BIG BROTHER 13</v>
+        <v>우리 결혼했어요 Season3</v>
       </c>
       <c r="B130" s="23" t="str">
         <f>VLOOKUP(C130,프로그램!A:I,9,FALSE)</f>
-        <v>WED,THU</v>
-      </c>
-      <c r="C130" s="25" t="s">
-        <v>276</v>
+        <v>SAT</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="D130" s="14">
         <v>20110919</v>
@@ -7428,26 +7458,24 @@
       <c r="E130" s="14">
         <v>20110925</v>
       </c>
-      <c r="F130" s="13" t="s">
-        <v>282</v>
+      <c r="F130" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="H130" s="24"/>
-      <c r="I130" s="13"/>
+        <v>391</v>
+      </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="23" t="str">
         <f>VLOOKUP(C131,프로그램!A:B,2,FALSE)</f>
-        <v>THE BIG BANG THEORY</v>
+        <v>일요일이 좋다 - 런닝맨</v>
       </c>
       <c r="B131" s="23" t="str">
         <f>VLOOKUP(C131,프로그램!A:I,9,FALSE)</f>
-        <v>THU</v>
-      </c>
-      <c r="C131" s="25" t="s">
-        <v>278</v>
+        <v>SUN</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="D131" s="14">
         <v>20110919</v>
@@ -7455,26 +7483,24 @@
       <c r="E131" s="14">
         <v>20110925</v>
       </c>
-      <c r="F131" s="13" t="s">
-        <v>282</v>
+      <c r="F131" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="H131" s="24"/>
-      <c r="I131" s="13"/>
+        <v>391</v>
+      </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="23" t="str">
         <f>VLOOKUP(C132,프로그램!A:B,2,FALSE)</f>
-        <v>CRIMINAL MINDS</v>
+        <v>포세이돈</v>
       </c>
       <c r="B132" s="23" t="str">
         <f>VLOOKUP(C132,프로그램!A:I,9,FALSE)</f>
-        <v>WED</v>
-      </c>
-      <c r="C132" s="25" t="s">
-        <v>280</v>
+        <v>MON,TUE</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>389</v>
       </c>
       <c r="D132" s="14">
         <v>20110919</v>
@@ -7482,14 +7508,174 @@
       <c r="E132" s="14">
         <v>20110925</v>
       </c>
-      <c r="F132" s="13" t="s">
+      <c r="F132" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="17" t="str">
+        <f>VLOOKUP(C133,프로그램!A:B,2,FALSE)</f>
+        <v>AMERICA'S GOT TALENT</v>
+      </c>
+      <c r="B133" s="17" t="str">
+        <f>VLOOKUP(C133,프로그램!A:I,9,FALSE)</f>
+        <v>TUE,WED</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D133" s="19">
+        <v>20110919</v>
+      </c>
+      <c r="E133" s="19">
+        <v>20110925</v>
+      </c>
+      <c r="F133" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="G132" s="14" t="s">
+      <c r="G133" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="H132" s="24"/>
-      <c r="I132" s="16"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="18"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="23" t="str">
+        <f>VLOOKUP(C134,프로그램!A:B,2,FALSE)</f>
+        <v>NCIS</v>
+      </c>
+      <c r="B134" s="23" t="str">
+        <f>VLOOKUP(C134,프로그램!A:I,9,FALSE)</f>
+        <v>TUE</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D134" s="14">
+        <v>20110919</v>
+      </c>
+      <c r="E134" s="14">
+        <v>20110925</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="H134" s="24"/>
+      <c r="I134" s="13"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="23" t="str">
+        <f>VLOOKUP(C135,프로그램!A:B,2,FALSE)</f>
+        <v>60 MINUTES</v>
+      </c>
+      <c r="B135" s="23" t="str">
+        <f>VLOOKUP(C135,프로그램!A:I,9,FALSE)</f>
+        <v>SUN</v>
+      </c>
+      <c r="C135" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D135" s="14">
+        <v>20110919</v>
+      </c>
+      <c r="E135" s="14">
+        <v>20110925</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="H135" s="24"/>
+      <c r="I135" s="16"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="23" t="str">
+        <f>VLOOKUP(C136,프로그램!A:B,2,FALSE)</f>
+        <v>BIG BROTHER 13</v>
+      </c>
+      <c r="B136" s="23" t="str">
+        <f>VLOOKUP(C136,프로그램!A:I,9,FALSE)</f>
+        <v>WED,THU</v>
+      </c>
+      <c r="C136" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="D136" s="14">
+        <v>20110919</v>
+      </c>
+      <c r="E136" s="14">
+        <v>20110925</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G136" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="H136" s="24"/>
+      <c r="I136" s="13"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="23" t="str">
+        <f>VLOOKUP(C137,프로그램!A:B,2,FALSE)</f>
+        <v>THE BIG BANG THEORY</v>
+      </c>
+      <c r="B137" s="23" t="str">
+        <f>VLOOKUP(C137,프로그램!A:I,9,FALSE)</f>
+        <v>THU</v>
+      </c>
+      <c r="C137" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="D137" s="14">
+        <v>20110919</v>
+      </c>
+      <c r="E137" s="14">
+        <v>20110925</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="H137" s="24"/>
+      <c r="I137" s="13"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="23" t="str">
+        <f>VLOOKUP(C138,프로그램!A:B,2,FALSE)</f>
+        <v>CRIMINAL MINDS</v>
+      </c>
+      <c r="B138" s="23" t="str">
+        <f>VLOOKUP(C138,프로그램!A:I,9,FALSE)</f>
+        <v>WED</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="D138" s="14">
+        <v>20110919</v>
+      </c>
+      <c r="E138" s="14">
+        <v>20110925</v>
+      </c>
+      <c r="F138" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="H138" s="24"/>
+      <c r="I138" s="16"/>
     </row>
   </sheetData>
   <sortState ref="A2:J103">
